--- a/pred_ohlcv/54_21/2019-10-17 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>213381.8963619</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -704,7 +704,7 @@
         <v>242209.6204619</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>306598.0033238</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>103021.38541112</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>105548.1888111201</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>122515.72671112</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>122515.72671112</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>134041.95141112</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>141241.95141112</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>141241.95141112</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>152303.66761112</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>154925.29351112</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>231252.16761112</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>155904.70461112</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>220049.5183754</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>219859.5183754</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>219859.5183754</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>223563.1788754</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>282860.8892754</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>282860.8892754</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>262761.8634754</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>272286.8715754</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>317812.35951112</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>351967.07291112</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>337031.33121112</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>351708.90511112</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>381327.08171112</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>421720.53231112</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>449672.94051112</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>470131.64371112</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1587773.74448414</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1587773.74448414</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1452740.4708757</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1543549.2594757</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1482577.6890757</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1196254.9885359</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1265121.6630359</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1014956.2696359</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1014956.2696359</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1028524.5843359</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>976483.3515359001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1045254.2036359</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1067681.2173359</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1039726.2173359</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1039726.2173359</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1111753.3274359</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1001374.5407359</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>910118.5180359</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>882461.3618359</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>882461.3618359</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>866710.0388359</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>851213.6208359001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1501712.765638071</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1501712.765638071</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1488544.855438071</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1488544.855438071</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1488161.038938071</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1491563.716938071</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1494721.440438071</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1494721.440438071</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1502032.469438072</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1500562.972938072</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1500562.972938072</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1451460.192838072</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 XEM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>242209.6204619</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>306598.0033238</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>103021.38541112</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>104576.0904111201</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>105548.1888111201</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>122515.72671112</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>122515.72671112</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>134041.95141112</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>141241.95141112</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>141241.95141112</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>152303.66761112</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>154925.29351112</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>231252.16761112</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>155904.70461112</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>220049.5183754</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>219859.5183754</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>219859.5183754</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>223563.1788754</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>282860.8892754</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>282860.8892754</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>262761.8634754</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>272286.8715754</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>317812.35951112</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>351967.07291112</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>337031.33121112</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>351708.90511112</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>376029.39511112</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>381327.08171112</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>421720.53231112</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>449672.94051112</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>470131.64371112</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1383644.91668414</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1406785.03458414</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1519143.80438414</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1587773.74448414</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1587773.74448414</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1452740.4708757</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1543549.2594757</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1482577.6890757</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1196254.9885359</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1265121.6630359</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1014956.2696359</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1014956.2696359</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1028524.5843359</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>976483.3515359001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1045254.2036359</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1067681.2173359</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1039726.2173359</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1039726.2173359</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1001374.5407359</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>910118.5180359</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>882461.3618359</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>866710.0388359</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
